--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano\Documents\UiPath\GAVB\Dealbook\Capture Investors\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E0A985-C035-4D37-B1CC-86C5750D3A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F27D0-143A-475B-8132-A62CA046F40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>TXT</t>
   </si>
   <si>
-    <t>Capture Investors</t>
-  </si>
-  <si>
     <t>/investors</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Investor,Description,Website,Linkedin,Status,Stages,Markets,Locations,Investments</t>
+  </si>
+  <si>
+    <t>dealbook_investors</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -684,7 +684,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -693,7 +693,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,10 +739,10 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
